--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Constants-fail.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Constants-fail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C09E54B-B0CF-42D1-8CA6-DDB4FB5385A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11685"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="12" r:id="rId1"/>
@@ -15,12 +16,22 @@
     <definedName name="_st2">#REF!</definedName>
     <definedName name="_st3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Constants</t>
   </si>
@@ -248,12 +259,33 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>D_STR</t>
+  </si>
+  <si>
+    <t>= hello</t>
+  </si>
+  <si>
+    <t>I_STR</t>
+  </si>
+  <si>
+    <t>= 12 ^^ 25</t>
+  </si>
+  <si>
+    <t>D_IDT</t>
+  </si>
+  <si>
+    <t>= "hello"</t>
+  </si>
+  <si>
+    <t>I_IDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,18 +357,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent1 10" xfId="3"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 6" xfId="2"/>
+    <cellStyle name="20% - Accent1 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -363,7 +396,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -380,9 +413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +453,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -526,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -699,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1167,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
